--- a/NTR.xlsx
+++ b/NTR.xlsx
@@ -1,27 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD66B20-6907-4DBC-8245-CD9B9D538611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10" yWindow="3320" windowWidth="16820" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>use for scripting</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>2/19/25: Q424 earnings release</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,13 +170,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +202,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="main"/>
+      <sheetName val="model"/>
+      <sheetName val="Litigation"/>
+      <sheetName val="Enlist"/>
+      <sheetName val="Seed"/>
+      <sheetName val="Traits"/>
+      <sheetName val="SeedTreatmentsOther"/>
+      <sheetName val="SeedBrands"/>
+      <sheetName val="CropProtection"/>
+      <sheetName val="otherCropProtection"/>
+      <sheetName val="diseaseMgmt"/>
+      <sheetName val="NitrogenMgmt"/>
+      <sheetName val="weedControl"/>
+      <sheetName val="insectNematode"/>
+      <sheetName val="IP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="191">
+          <cell r="M191">
+            <v>2644</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="M192">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="H207">
+            <v>3741</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="H213">
+            <v>1975</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +531,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="K2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>65.27</v>
+      </c>
+    </row>
+    <row r="3" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8">
+        <v>687.29300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="9">
+        <f>+N3*N2</f>
+        <v>44859.614109999995</v>
+      </c>
+    </row>
+    <row r="5" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9">
+        <f>+SUM([1]model!M191:M192)</f>
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="6" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="9">
+        <f>+[1]model!H213+[1]model!H207</f>
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="7" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="9">
+        <f>+N4-N5+N6</f>
+        <v>47833.614109999995</v>
+      </c>
+    </row>
+    <row r="10" spans="11:14" x14ac:dyDescent="0.35">
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99CFC4-E993-423C-B163-FA1CB7FA1E6D}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{9E16BE19-CCA7-4B23-9204-269A600F615C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>